--- a/Offers Test Case.xlsx
+++ b/Offers Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Desktop\QA Internship - Group 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E394A9-A109-4DB8-A0D4-42DCDB59CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8798D-D036-4019-8A60-362A52838F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="101">
   <si>
     <t>Project Name</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>TCOF_01_018</t>
+  </si>
+  <si>
+    <t>Defect 010</t>
+  </si>
+  <si>
+    <t>Defect 009</t>
   </si>
 </sst>
 </file>
@@ -782,7 +788,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -864,6 +869,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,10 +887,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,15 +945,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1184,90 +1192,90 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C13"/>
+      <pane ySplit="8" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="23" customWidth="1"/>
     <col min="9" max="9" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="59">
+      <c r="H1" s="62">
         <v>45590</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1287,19 +1295,19 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1319,19 +1327,19 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1352,14 +1360,14 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1379,72 +1387,76 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="6"/>
@@ -1456,16 +1468,18 @@
       <c r="B11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="23" t="s">
+      <c r="G11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="6"/>
@@ -1473,16 +1487,18 @@
     <row r="12" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="43"/>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="23" t="s">
+      <c r="G12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="6"/>
@@ -1490,16 +1506,18 @@
     <row r="13" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="41"/>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="6"/>
@@ -1511,16 +1529,18 @@
       <c r="B14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I14" s="6"/>
@@ -1528,16 +1548,18 @@
     <row r="15" spans="1:26" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="43"/>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="23" t="s">
+      <c r="G15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="6"/>
@@ -1545,108 +1567,118 @@
     <row r="16" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="43"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="23" t="s">
+      <c r="G16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="23" t="s">
+      <c r="G17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="23" t="s">
+      <c r="G20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="6"/>
@@ -1658,20 +1690,22 @@
       <c r="B21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="23" t="s">
+      <c r="G21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="6"/>
@@ -1679,16 +1713,18 @@
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="43"/>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="23" t="s">
+      <c r="G22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="6"/>
@@ -1700,20 +1736,22 @@
       <c r="B23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="23" t="s">
+      <c r="G23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="6"/>
@@ -1721,16 +1759,18 @@
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="47"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="43"/>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="23" t="s">
+      <c r="G24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I24" s="6"/>
@@ -1742,37 +1782,41 @@
       <c r="B25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="40" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="43"/>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="6"/>
@@ -1780,16 +1824,18 @@
     <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="43"/>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="6"/>
@@ -1797,35 +1843,39 @@
     <row r="28" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="44"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="43"/>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="40" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="44"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="46"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="23" t="s">
+      <c r="G29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I29" s="6"/>
@@ -1833,16 +1883,18 @@
     <row r="30" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I30" s="6"/>
@@ -1854,37 +1906,41 @@
       <c r="B31" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="40" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="44"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="43"/>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="23" t="s">
+      <c r="G32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I32" s="6"/>
@@ -1892,16 +1948,18 @@
     <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="43"/>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="23" t="s">
+      <c r="G33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I33" s="6"/>
@@ -1909,35 +1967,39 @@
     <row r="34" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="44"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="I34" s="40" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="44"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="43"/>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="23" t="s">
+      <c r="G35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I35" s="6"/>
@@ -1945,16 +2007,18 @@
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="43"/>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="23" t="s">
+      <c r="G36" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I36" s="6"/>
@@ -1966,20 +2030,22 @@
       <c r="B37" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I37" s="6"/>
@@ -1987,18 +2053,20 @@
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="44"/>
       <c r="B38" s="41"/>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="43"/>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="23" t="s">
+      <c r="G38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I38" s="6"/>
@@ -2010,20 +2078,22 @@
       <c r="B39" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="23" t="s">
+      <c r="G39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I39" s="6"/>
@@ -2031,18 +2101,20 @@
     <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="43"/>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="23" t="s">
+      <c r="G40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I40" s="6"/>
@@ -2060,14 +2132,16 @@
       <c r="D41" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="23" t="s">
+      <c r="G41" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I41" s="6"/>
@@ -2077,14 +2151,16 @@
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
       <c r="D42" s="43"/>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="23" t="s">
+      <c r="G42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I42" s="6"/>
@@ -2102,14 +2178,16 @@
       <c r="D43" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="23" t="s">
+      <c r="G43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I43" s="6"/>
@@ -2119,14 +2197,16 @@
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
       <c r="D44" s="43"/>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="23" t="s">
+      <c r="G44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I44" s="6"/>
@@ -2142,14 +2222,16 @@
       <c r="D45" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="23" t="s">
+      <c r="G45" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I45" s="6"/>
@@ -2159,14 +2241,16 @@
       <c r="B46" s="41"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="23" t="s">
+      <c r="G46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I46" s="6"/>
@@ -2176,14 +2260,16 @@
       <c r="B47" s="41"/>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="23" t="s">
+      <c r="G47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I47" s="6"/>
@@ -2199,14 +2285,16 @@
       <c r="D48" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="23" t="s">
+      <c r="G48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I48" s="6"/>
@@ -2216,34 +2304,38 @@
       <c r="B49" s="41"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="23" t="s">
+      <c r="G49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="27" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="8"/>
+      <c r="G50" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:Z50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
